--- a/data/trans_orig/P44-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2300F4-EF37-4E88-96BD-5B1DBDD76C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEE34D1-8014-45A0-BAA8-97F4CF3A86A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A580C6B1-2A17-4676-96BE-821B12E606FE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3D781D4-476D-4591-9B3A-709012DBE6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="238">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -91,55 +91,55 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -151,331 +151,343 @@
     <t>9,5%</t>
   </si>
   <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
     <t>6,74%</t>
   </si>
   <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>90,31%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>7,48%</t>
@@ -484,28 +496,31 @@
     <t>6,16%</t>
   </si>
   <si>
-    <t>8,99%</t>
+    <t>9,01%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>10,75%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>91,01%</t>
+    <t>90,99%</t>
   </si>
   <si>
     <t>93,84%</t>
@@ -514,7 +529,10 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>89,25%</t>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -523,115 +541,115 @@
     <t>40,26%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>24,05%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>75,95%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>33,5%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>68,21%</t>
   </si>
   <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>38,8%</t>
+    <t>38,56%</t>
   </si>
   <si>
     <t>44,97%</t>
@@ -640,19 +658,19 @@
     <t>28,63%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>58,15%</t>
@@ -661,79 +679,79 @@
     <t>55,03%</t>
   </si>
   <si>
-    <t>61,2%</t>
+    <t>61,44%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890D1097-FA4E-4D89-8A0D-B69BABCE9AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9262EE13-44BB-465F-A609-858FDC9811A5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFFA8AD-CB8D-47D8-B382-F053087826F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460FD021-B304-4E7C-9FE5-C10765457F03}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3155,13 +3173,13 @@
         <v>85691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -3170,13 +3188,13 @@
         <v>70423</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -3185,13 +3203,13 @@
         <v>156113</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3224,13 @@
         <v>505637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>595</v>
@@ -3221,13 +3239,13 @@
         <v>707508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>1133</v>
@@ -3236,13 +3254,13 @@
         <v>1213146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3328,13 @@
         <v>164868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -3325,13 +3343,13 @@
         <v>119300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -3340,13 +3358,13 @@
         <v>284168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3379,13 @@
         <v>1234658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>1284</v>
@@ -3376,13 +3394,13 @@
         <v>1476506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>2476</v>
@@ -3391,13 +3409,13 @@
         <v>2711164</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22D5933-1CB9-4651-AA46-878E5B0D7592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5CC165-B38E-4EB7-958F-AA8832A60396}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3492,7 +3510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4010,13 +4028,13 @@
         <v>142552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
@@ -4025,13 +4043,13 @@
         <v>76956</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -4040,13 +4058,13 @@
         <v>219509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4079,13 @@
         <v>211493</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -4076,13 +4094,13 @@
         <v>243017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>577</v>
@@ -4091,13 +4109,13 @@
         <v>454509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4183,13 @@
         <v>193715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -4180,13 +4198,13 @@
         <v>168522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>498</v>
@@ -4195,13 +4213,13 @@
         <v>362237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4234,13 @@
         <v>384605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>662</v>
@@ -4231,13 +4249,13 @@
         <v>392482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>1082</v>
@@ -4246,13 +4264,13 @@
         <v>777087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4338,13 @@
         <v>284231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>499</v>
@@ -4335,13 +4353,13 @@
         <v>282803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>905</v>
@@ -4350,13 +4368,13 @@
         <v>567035</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4389,13 @@
         <v>394897</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>1137</v>
@@ -4386,13 +4404,13 @@
         <v>705063</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>1732</v>
@@ -4401,13 +4419,13 @@
         <v>1099960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4493,13 @@
         <v>620499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>900</v>
@@ -4490,13 +4508,13 @@
         <v>528281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>1615</v>
@@ -4505,13 +4523,13 @@
         <v>1148780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,28 +4544,28 @@
         <v>990995</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>2168</v>
       </c>
       <c r="I23" s="7">
-        <v>1340562</v>
+        <v>1340561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>3391</v>
@@ -4556,13 +4574,13 @@
         <v>2331556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4607,7 @@
         <v>3068</v>
       </c>
       <c r="I24" s="7">
-        <v>1868843</v>
+        <v>1868842</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>34</v>

--- a/data/trans_orig/P44-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEE34D1-8014-45A0-BAA8-97F4CF3A86A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C57D57B-F7B8-4427-9D60-83B9B7482268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3D781D4-476D-4591-9B3A-709012DBE6F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBAA01F7-F5F3-42C7-80CA-3A7F6E0D36CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -91,19 +91,19 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>6,64%</t>
@@ -112,31 +112,31 @@
     <t>4,71%</t>
   </si>
   <si>
-    <t>9,59%</t>
+    <t>9,45%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>90,41%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>95,29%</t>
@@ -151,55 +151,55 @@
     <t>9,5%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>90,5%</t>
   </si>
   <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -208,55 +208,55 @@
     <t>11,05%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>9,53%</t>
@@ -265,31 +265,31 @@
     <t>7,76%</t>
   </si>
   <si>
-    <t>11,48%</t>
+    <t>11,66%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>88,52%</t>
+    <t>88,34%</t>
   </si>
   <si>
     <t>92,24%</t>
@@ -298,241 +298,235 @@
     <t>92,5%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>93,88%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -1163,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9262EE13-44BB-465F-A609-858FDC9811A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5521661-88F5-4082-8B00-AB7FEABF8D21}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2328,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460FD021-B304-4E7C-9FE5-C10765457F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59494D2-B19C-4190-B6F2-77CE9972ABF9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3343,7 @@
         <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -3358,13 +3352,13 @@
         <v>284168</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3373,13 @@
         <v>1234658</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>1284</v>
@@ -3394,13 +3388,13 @@
         <v>1476506</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>2476</v>
@@ -3409,13 +3403,13 @@
         <v>2711164</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,7 +3487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5CC165-B38E-4EB7-958F-AA8832A60396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DA402A-6536-4585-A23E-C6A299802EB1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3510,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4028,13 +4022,13 @@
         <v>142552</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
@@ -4043,13 +4037,13 @@
         <v>76956</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -4058,13 +4052,13 @@
         <v>219509</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4073,13 @@
         <v>211493</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -4094,13 +4088,13 @@
         <v>243017</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>577</v>
@@ -4109,13 +4103,13 @@
         <v>454509</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4177,13 @@
         <v>193715</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -4198,13 +4192,13 @@
         <v>168522</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>498</v>
@@ -4213,13 +4207,13 @@
         <v>362237</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4228,13 @@
         <v>384605</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>662</v>
@@ -4249,13 +4243,13 @@
         <v>392482</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>1082</v>
@@ -4264,13 +4258,13 @@
         <v>777087</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4332,13 @@
         <v>284231</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>499</v>
@@ -4353,13 +4347,13 @@
         <v>282803</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>905</v>
@@ -4368,13 +4362,13 @@
         <v>567035</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4383,13 @@
         <v>394897</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>1137</v>
@@ -4404,13 +4398,13 @@
         <v>705063</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>1732</v>
@@ -4419,13 +4413,13 @@
         <v>1099960</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4487,13 @@
         <v>620499</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>900</v>
@@ -4508,13 +4502,13 @@
         <v>528281</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>1615</v>
@@ -4523,13 +4517,13 @@
         <v>1148780</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4538,13 @@
         <v>990995</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>2168</v>
@@ -4559,13 +4553,13 @@
         <v>1340561</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>3391</v>
@@ -4574,13 +4568,13 @@
         <v>2331556</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C57D57B-F7B8-4427-9D60-83B9B7482268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47B8183-9E95-4706-96DE-30D5591EC9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBAA01F7-F5F3-42C7-80CA-3A7F6E0D36CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDA9F478-3892-41BA-B47F-E954865D41A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -91,55 +91,55 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -151,55 +151,55 @@
     <t>9,5%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>90,5%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -208,109 +208,109 @@
     <t>11,05%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -322,211 +322,199 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>10,75%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>93,88%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>89,25%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -535,115 +523,115 @@
     <t>40,26%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>24,05%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>75,95%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>33,5%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>68,21%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>38,56%</t>
+    <t>38,8%</t>
   </si>
   <si>
     <t>44,97%</t>
@@ -652,19 +640,19 @@
     <t>28,63%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>58,15%</t>
@@ -673,79 +661,79 @@
     <t>55,03%</t>
   </si>
   <si>
-    <t>61,44%</t>
+    <t>61,2%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5521661-88F5-4082-8B00-AB7FEABF8D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A01392-93FF-4E5A-A540-09257841EDD7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2322,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59494D2-B19C-4190-B6F2-77CE9972ABF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC82168-3895-4544-86E9-30A6FD2DFCC7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3167,13 +3155,13 @@
         <v>85691</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -3182,13 +3170,13 @@
         <v>70423</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -3197,13 +3185,13 @@
         <v>156113</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3206,13 @@
         <v>505637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>595</v>
@@ -3233,13 +3221,13 @@
         <v>707508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>1133</v>
@@ -3248,13 +3236,13 @@
         <v>1213146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3310,13 @@
         <v>164868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -3337,13 +3325,13 @@
         <v>119300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -3352,13 +3340,13 @@
         <v>284168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3361,13 @@
         <v>1234658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>1284</v>
@@ -3388,13 +3376,13 @@
         <v>1476506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>2476</v>
@@ -3403,13 +3391,13 @@
         <v>2711164</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DA402A-6536-4585-A23E-C6A299802EB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF38A8D7-C3D2-4AD4-BA57-953739E48356}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3504,7 +3492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4022,13 +4010,13 @@
         <v>142552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
@@ -4037,13 +4025,13 @@
         <v>76956</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -4052,13 +4040,13 @@
         <v>219509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4061,13 @@
         <v>211493</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -4088,13 +4076,13 @@
         <v>243017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>577</v>
@@ -4103,13 +4091,13 @@
         <v>454509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4165,13 @@
         <v>193715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -4192,13 +4180,13 @@
         <v>168522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>498</v>
@@ -4207,13 +4195,13 @@
         <v>362237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4216,13 @@
         <v>384605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>662</v>
@@ -4243,13 +4231,13 @@
         <v>392482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1082</v>
@@ -4258,13 +4246,13 @@
         <v>777087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4320,13 @@
         <v>284231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>499</v>
@@ -4347,13 +4335,13 @@
         <v>282803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>905</v>
@@ -4362,13 +4350,13 @@
         <v>567035</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4371,13 @@
         <v>394897</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>1137</v>
@@ -4398,13 +4386,13 @@
         <v>705063</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>1732</v>
@@ -4413,13 +4401,13 @@
         <v>1099960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4475,13 @@
         <v>620499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>900</v>
@@ -4502,13 +4490,13 @@
         <v>528281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>1615</v>
@@ -4517,13 +4505,13 @@
         <v>1148780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,28 +4526,28 @@
         <v>990995</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>2168</v>
       </c>
       <c r="I23" s="7">
-        <v>1340561</v>
+        <v>1340562</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>3391</v>
@@ -4568,13 +4556,13 @@
         <v>2331556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4589,7 @@
         <v>3068</v>
       </c>
       <c r="I24" s="7">
-        <v>1868842</v>
+        <v>1868843</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>34</v>

--- a/data/trans_orig/P44-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47B8183-9E95-4706-96DE-30D5591EC9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{100CEC2E-8B2F-4879-9CD0-9716506A2F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDA9F478-3892-41BA-B47F-E954865D41A7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AE68BF85-7413-4524-9E7F-FF6BB3D732AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="290">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>6,04%</t>
@@ -145,7 +145,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>9,5%</t>
@@ -202,538 +202,712 @@
     <t>93,18%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1319,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A01392-93FF-4E5A-A540-09257841EDD7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CA5E13-BB84-48EE-9B4F-D3EDA95F8F8F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1984,10 +2158,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>60244</v>
+        <v>32735</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>55</v>
@@ -1999,10 +2173,10 @@
         <v>57</v>
       </c>
       <c r="H19" s="7">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>54680</v>
+        <v>33386</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>58</v>
@@ -2014,19 +2188,19 @@
         <v>60</v>
       </c>
       <c r="M19" s="7">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>114924</v>
+        <v>66121</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,49 +2209,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>438</v>
+        <v>246</v>
       </c>
       <c r="D20" s="7">
-        <v>485111</v>
+        <v>267922</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>308</v>
+      </c>
+      <c r="I20" s="7">
+        <v>316707</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="7">
-        <v>638</v>
-      </c>
-      <c r="I20" s="7">
-        <v>683290</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>554</v>
+      </c>
+      <c r="N20" s="7">
+        <v>584629</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="7">
-        <v>1076</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1168401</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,10 +2260,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>490</v>
+        <v>273</v>
       </c>
       <c r="D21" s="7">
-        <v>545355</v>
+        <v>300657</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -2101,10 +2275,10 @@
         <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>689</v>
+        <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>737970</v>
+        <v>350093</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>34</v>
@@ -2116,10 +2290,10 @@
         <v>34</v>
       </c>
       <c r="M21" s="7">
-        <v>1179</v>
+        <v>613</v>
       </c>
       <c r="N21" s="7">
-        <v>1283325</v>
+        <v>650750</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
@@ -2133,55 +2307,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>113756</v>
+        <v>27509</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>19</v>
+      </c>
+      <c r="I22" s="7">
+        <v>21295</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="7">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7">
-        <v>110061</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>44</v>
+      </c>
+      <c r="N22" s="7">
+        <v>48804</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="7">
-        <v>198</v>
-      </c>
-      <c r="N22" s="7">
-        <v>223818</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,49 +2364,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>978</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>1080292</v>
+        <v>217189</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>330</v>
+      </c>
+      <c r="I23" s="7">
+        <v>366582</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="7">
-        <v>1249</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1357419</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>522</v>
+      </c>
+      <c r="N23" s="7">
+        <v>583771</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="7">
-        <v>2227</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2437710</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,63 +2415,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>217</v>
+      </c>
+      <c r="D24" s="7">
+        <v>244698</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387877</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7">
+        <v>566</v>
+      </c>
+      <c r="N24" s="7">
+        <v>632575</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7">
+        <v>113757</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="7">
+        <v>100</v>
+      </c>
+      <c r="I25" s="7">
+        <v>110061</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="7">
+        <v>198</v>
+      </c>
+      <c r="N25" s="7">
+        <v>223818</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>978</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1080292</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1249</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1357419</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2227</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2437710</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1076</v>
       </c>
-      <c r="D24" s="7">
-        <v>1194048</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1194049</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7">
         <v>1349</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1467480</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7">
         <v>2425</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2661528</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>91</v>
+      <c r="O27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2310,8 +2640,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC82168-3895-4544-86E9-30A6FD2DFCC7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E6E84-D498-4866-9362-FD682C3807BB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2327,7 +2657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2845,13 +3175,13 @@
         <v>26782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2860,13 +3190,13 @@
         <v>11037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2875,13 +3205,13 @@
         <v>37819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +3226,13 @@
         <v>303498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -2911,13 +3241,13 @@
         <v>309989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -2926,13 +3256,13 @@
         <v>613487</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3330,13 @@
         <v>52395</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -3015,13 +3345,13 @@
         <v>37840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -3030,13 +3360,13 @@
         <v>90235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3381,13 @@
         <v>425523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -3066,13 +3396,13 @@
         <v>459009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>778</v>
@@ -3081,13 +3411,13 @@
         <v>884532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,49 +3479,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>85691</v>
+        <v>44932</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>70423</v>
+        <v>33240</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="N19" s="7">
-        <v>156113</v>
+        <v>78172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,49 +3530,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>538</v>
+        <v>283</v>
       </c>
       <c r="D20" s="7">
-        <v>505637</v>
+        <v>289398</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
-        <v>595</v>
+        <v>322</v>
       </c>
       <c r="I20" s="7">
-        <v>707508</v>
+        <v>344522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
-        <v>1133</v>
+        <v>605</v>
       </c>
       <c r="N20" s="7">
-        <v>1213146</v>
+        <v>633920</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,10 +3581,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -3266,10 +3596,10 @@
         <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>34</v>
@@ -3281,10 +3611,10 @@
         <v>34</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
@@ -3298,55 +3628,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7">
-        <v>164868</v>
+        <v>40759</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>119300</v>
+        <v>37182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="M22" s="7">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="N22" s="7">
-        <v>284168</v>
+        <v>77942</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,49 +3685,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1192</v>
+        <v>255</v>
       </c>
       <c r="D23" s="7">
-        <v>1234658</v>
+        <v>216239</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
-        <v>1284</v>
+        <v>273</v>
       </c>
       <c r="I23" s="7">
-        <v>1476506</v>
+        <v>362987</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
-        <v>2476</v>
+        <v>528</v>
       </c>
       <c r="N23" s="7">
-        <v>2711164</v>
+        <v>579225</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,63 +3736,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>159</v>
+      </c>
+      <c r="D25" s="7">
+        <v>164868</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="7">
+        <v>103</v>
+      </c>
+      <c r="I25" s="7">
+        <v>119300</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="7">
+        <v>262</v>
+      </c>
+      <c r="N25" s="7">
+        <v>284168</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1192</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1234658</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1284</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1476506</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2476</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2711164</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1351</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1399526</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7">
         <v>1387</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1595806</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7">
         <v>2738</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2995332</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>91</v>
+      <c r="O27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3475,8 +3961,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF38A8D7-C3D2-4AD4-BA57-953739E48356}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF86649-0B75-4FAA-B590-D168DA4C2A09}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3492,7 +3978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4007,46 +4493,46 @@
         <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>142552</v>
+        <v>333172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
       </c>
       <c r="I13" s="7">
-        <v>76956</v>
+        <v>72036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
       </c>
       <c r="N13" s="7">
-        <v>219509</v>
+        <v>405209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,46 +4544,46 @@
         <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>211493</v>
+        <v>202470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
       </c>
       <c r="I14" s="7">
-        <v>243017</v>
+        <v>222126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>577</v>
       </c>
       <c r="N14" s="7">
-        <v>454509</v>
+        <v>424595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4595,7 @@
         <v>300</v>
       </c>
       <c r="D15" s="7">
-        <v>354045</v>
+        <v>535642</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>34</v>
@@ -4124,7 +4610,7 @@
         <v>489</v>
       </c>
       <c r="I15" s="7">
-        <v>319973</v>
+        <v>294162</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>34</v>
@@ -4139,7 +4625,7 @@
         <v>789</v>
       </c>
       <c r="N15" s="7">
-        <v>674018</v>
+        <v>829804</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -4162,46 +4648,46 @@
         <v>217</v>
       </c>
       <c r="D16" s="7">
-        <v>193715</v>
+        <v>183248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>168522</v>
+        <v>155949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>498</v>
       </c>
       <c r="N16" s="7">
-        <v>362237</v>
+        <v>339197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,46 +4699,46 @@
         <v>420</v>
       </c>
       <c r="D17" s="7">
-        <v>384605</v>
+        <v>357447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>662</v>
       </c>
       <c r="I17" s="7">
-        <v>392482</v>
+        <v>358767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>1082</v>
       </c>
       <c r="N17" s="7">
-        <v>777087</v>
+        <v>716214</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4750,7 @@
         <v>637</v>
       </c>
       <c r="D18" s="7">
-        <v>578320</v>
+        <v>540695</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>34</v>
@@ -4279,7 +4765,7 @@
         <v>943</v>
       </c>
       <c r="I18" s="7">
-        <v>561004</v>
+        <v>514716</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>34</v>
@@ -4294,7 +4780,7 @@
         <v>1580</v>
       </c>
       <c r="N18" s="7">
-        <v>1139324</v>
+        <v>1055411</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>34</v>
@@ -4314,49 +4800,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>406</v>
+        <v>250</v>
       </c>
       <c r="D19" s="7">
-        <v>284231</v>
+        <v>164570</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="I19" s="7">
-        <v>282803</v>
+        <v>143059</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
-        <v>905</v>
+        <v>539</v>
       </c>
       <c r="N19" s="7">
-        <v>567035</v>
+        <v>307629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,49 +4851,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>595</v>
+        <v>305</v>
       </c>
       <c r="D20" s="7">
-        <v>394897</v>
+        <v>194026</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
-        <v>1137</v>
+        <v>511</v>
       </c>
       <c r="I20" s="7">
-        <v>705063</v>
+        <v>453216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
-        <v>1732</v>
+        <v>816</v>
       </c>
       <c r="N20" s="7">
-        <v>1099960</v>
+        <v>647242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,10 +4902,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1001</v>
+        <v>555</v>
       </c>
       <c r="D21" s="7">
-        <v>679128</v>
+        <v>358596</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -4431,10 +4917,10 @@
         <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>1636</v>
+        <v>800</v>
       </c>
       <c r="I21" s="7">
-        <v>987866</v>
+        <v>596275</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>34</v>
@@ -4446,10 +4932,10 @@
         <v>34</v>
       </c>
       <c r="M21" s="7">
-        <v>2637</v>
+        <v>1355</v>
       </c>
       <c r="N21" s="7">
-        <v>1666995</v>
+        <v>954871</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
@@ -4463,55 +4949,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>715</v>
+        <v>156</v>
       </c>
       <c r="D22" s="7">
-        <v>620499</v>
+        <v>99507</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="I22" s="7">
-        <v>528281</v>
+        <v>108379</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
-        <v>1615</v>
+        <v>366</v>
       </c>
       <c r="N22" s="7">
-        <v>1148780</v>
+        <v>207885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +5006,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1223</v>
+        <v>290</v>
       </c>
       <c r="D23" s="7">
-        <v>990995</v>
+        <v>175584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
-        <v>2168</v>
+        <v>626</v>
       </c>
       <c r="I23" s="7">
-        <v>1340562</v>
+        <v>294430</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
-        <v>3391</v>
+        <v>916</v>
       </c>
       <c r="N23" s="7">
-        <v>2331556</v>
+        <v>470015</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,63 +5057,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275091</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7">
+        <v>836</v>
+      </c>
+      <c r="I24" s="7">
+        <v>402809</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1282</v>
+      </c>
+      <c r="N24" s="7">
+        <v>677900</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>715</v>
+      </c>
+      <c r="D25" s="7">
+        <v>780497</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25" s="7">
+        <v>900</v>
+      </c>
+      <c r="I25" s="7">
+        <v>479423</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1615</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1259920</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1223</v>
+      </c>
+      <c r="D26" s="7">
+        <v>929527</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2168</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1328539</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3391</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2258066</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1938</v>
       </c>
-      <c r="D24" s="7">
-        <v>1611494</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1710024</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7">
         <v>3068</v>
       </c>
-      <c r="I24" s="7">
-        <v>1868843</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1807962</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7">
         <v>5006</v>
       </c>
-      <c r="N24" s="7">
-        <v>3480336</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>91</v>
+      <c r="N27" s="7">
+        <v>3517986</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
